--- a/public/api/save/data.xlsx
+++ b/public/api/save/data.xlsx
@@ -375,70 +375,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>id</v>
+        <v>Артикул</v>
       </c>
       <c r="B1" t="str">
-        <v>partnumber</v>
+        <v>Описание продукта</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Количество всего</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Продали</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Остаток</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Примечание</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
+        <v>123</v>
+      </c>
+      <c r="B2" t="str">
+        <v>aaa</v>
+      </c>
+      <c r="C2">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>123123</v>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="str">
+        <v>aaa</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
+        <v>132123</v>
+      </c>
+      <c r="B3" t="str">
+        <v>aaa</v>
+      </c>
+      <c r="C3">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>1231</v>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="str">
+        <v>aaa</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>12312</v>
+        <v>777</v>
+      </c>
+      <c r="B4" t="str">
+        <v>aaa</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="str">
+        <v>3</v>
+      </c>
+      <c r="F4" t="str">
+        <v>aa</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>213</v>
+        <v>777</v>
+      </c>
+      <c r="B5" t="str">
+        <v>aaa</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="str">
+        <v>3</v>
+      </c>
+      <c r="F5" t="str">
+        <v>bb</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>123</v>
+      <c r="A6" t="str">
+        <v/>
+      </c>
+      <c r="B6" t="str">
+        <v/>
+      </c>
+      <c r="C6" t="str">
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/api/save/data.xlsx
+++ b/public/api/save/data.xlsx
@@ -445,7 +445,7 @@
         <v>777</v>
       </c>
       <c r="B4" t="str">
-        <v>aaa</v>
+        <v>aa</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -461,8 +461,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5">
-        <v>777</v>
+      <c r="A5" t="str">
+        <v>7</v>
       </c>
       <c r="B5" t="str">
         <v>aaa</v>

--- a/public/api/save/data.xlsx
+++ b/public/api/save/data.xlsx
@@ -401,19 +401,19 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
+      <c r="A2" t="str">
         <v>123</v>
       </c>
       <c r="B2" t="str">
         <v>aaa</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="str">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="str">
         <v>2</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="str">
         <v>1</v>
       </c>
       <c r="F2" t="str">
@@ -421,83 +421,83 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3">
-        <v>132123</v>
+      <c r="A3" t="str">
+        <v>1234</v>
       </c>
       <c r="B3" t="str">
-        <v>aaa</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
+        <v>fff</v>
+      </c>
+      <c r="C3" t="str">
+        <v>45</v>
+      </c>
+      <c r="D3" t="str">
+        <v>32</v>
+      </c>
+      <c r="E3" t="str">
+        <v>42</v>
       </c>
       <c r="F3" t="str">
-        <v>aaa</v>
+        <v>aaaasd</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
-        <v>777</v>
+      <c r="A4" t="str">
+        <v>231</v>
       </c>
       <c r="B4" t="str">
-        <v>aa</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
+        <v>asda</v>
+      </c>
+      <c r="C4" t="str">
+        <v>43</v>
+      </c>
+      <c r="D4" t="str">
+        <v>213</v>
       </c>
       <c r="E4" t="str">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="F4" t="str">
-        <v>aa</v>
+        <v>aasda</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>7</v>
+        <v>3425</v>
       </c>
       <c r="B5" t="str">
-        <v>aaa</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
+        <v>aaaasd</v>
+      </c>
+      <c r="C5" t="str">
+        <v>123</v>
+      </c>
+      <c r="D5" t="str">
+        <v>23</v>
       </c>
       <c r="E5" t="str">
-        <v>3</v>
+        <v>3123</v>
       </c>
       <c r="F5" t="str">
-        <v>bb</v>
+        <v>asda</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v/>
+        <v>1231</v>
       </c>
       <c r="B6" t="str">
-        <v/>
+        <v>asdad</v>
       </c>
       <c r="C6" t="str">
-        <v/>
+        <v>42</v>
       </c>
       <c r="D6" t="str">
-        <v/>
+        <v>123</v>
       </c>
       <c r="E6" t="str">
-        <v/>
+        <v>24</v>
       </c>
       <c r="F6" t="str">
-        <v/>
+        <v>asdasdas</v>
       </c>
     </row>
   </sheetData>

--- a/public/api/save/data.xlsx
+++ b/public/api/save/data.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -428,7 +428,7 @@
         <v>fff</v>
       </c>
       <c r="C3" t="str">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="D3" t="str">
         <v>32</v>
@@ -500,9 +500,69 @@
         <v>asdasdas</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>12345</v>
+      </c>
+      <c r="B7" t="str">
+        <v>sdsad</v>
+      </c>
+      <c r="C7" t="str">
+        <v>5</v>
+      </c>
+      <c r="D7" t="str">
+        <v>5</v>
+      </c>
+      <c r="E7" t="str">
+        <v>2</v>
+      </c>
+      <c r="F7" t="str">
+        <v>asdasd</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>1</v>
+      </c>
+      <c r="B8" t="str">
+        <v>1145</v>
+      </c>
+      <c r="C8" t="str">
+        <v>1</v>
+      </c>
+      <c r="D8" t="str">
+        <v>11</v>
+      </c>
+      <c r="E8" t="str">
+        <v>1</v>
+      </c>
+      <c r="F8" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>0</v>
+      </c>
+      <c r="B9" t="str">
+        <v>00</v>
+      </c>
+      <c r="C9" t="str">
+        <v>0</v>
+      </c>
+      <c r="D9" t="str">
+        <v>0</v>
+      </c>
+      <c r="E9" t="str">
+        <v>00</v>
+      </c>
+      <c r="F9" t="str">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F9"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/api/save/data.xlsx
+++ b/public/api/save/data.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,22 +402,22 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>123</v>
+        <v>1234</v>
       </c>
       <c r="B2" t="str">
-        <v>aaa</v>
+        <v>ffF</v>
       </c>
       <c r="C2" t="str">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2" t="str">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E2" t="str">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="F2" t="str">
-        <v>aaa</v>
+        <v>aaaasd</v>
       </c>
     </row>
     <row r="3">
@@ -428,141 +428,461 @@
         <v>fff</v>
       </c>
       <c r="C3" t="str">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="D3" t="str">
-        <v>32</v>
+        <v>213</v>
       </c>
       <c r="E3" t="str">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="F3" t="str">
-        <v>aaaasd</v>
+        <v>aasda</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>231</v>
+        <v>3425</v>
       </c>
       <c r="B4" t="str">
+        <v>aaaasd</v>
+      </c>
+      <c r="C4" t="str">
+        <v>123</v>
+      </c>
+      <c r="D4" t="str">
+        <v>23</v>
+      </c>
+      <c r="E4" t="str">
+        <v>3123</v>
+      </c>
+      <c r="F4" t="str">
         <v>asda</v>
-      </c>
-      <c r="C4" t="str">
-        <v>43</v>
-      </c>
-      <c r="D4" t="str">
-        <v>213</v>
-      </c>
-      <c r="E4" t="str">
-        <v>23</v>
-      </c>
-      <c r="F4" t="str">
-        <v>aasda</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>3425</v>
+        <v>1231</v>
       </c>
       <c r="B5" t="str">
-        <v>aaaasd</v>
+        <v>asdad</v>
       </c>
       <c r="C5" t="str">
+        <v>42</v>
+      </c>
+      <c r="D5" t="str">
         <v>123</v>
       </c>
-      <c r="D5" t="str">
-        <v>23</v>
-      </c>
       <c r="E5" t="str">
-        <v>3123</v>
+        <v>24</v>
       </c>
       <c r="F5" t="str">
-        <v>asda</v>
+        <v>asdasdas</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>1231</v>
+        <v>12345</v>
       </c>
       <c r="B6" t="str">
-        <v>asdad</v>
+        <v>sdsad</v>
       </c>
       <c r="C6" t="str">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D6" t="str">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="E6" t="str">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="F6" t="str">
-        <v>asdasdas</v>
+        <v>asdasd</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>12345</v>
+        <v>23459</v>
       </c>
       <c r="B7" t="str">
-        <v>sdsad</v>
+        <v>asdad</v>
       </c>
       <c r="C7" t="str">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D7" t="str">
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="E7" t="str">
-        <v>2</v>
+        <v>3123</v>
       </c>
       <c r="F7" t="str">
-        <v>asdasd</v>
+        <v>asda</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>1</v>
+        <v>34573</v>
       </c>
       <c r="B8" t="str">
-        <v>1145</v>
+        <v>sdsad</v>
       </c>
       <c r="C8" t="str">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="D8" t="str">
-        <v>11</v>
+        <v>231</v>
       </c>
       <c r="E8" t="str">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F8" t="str">
-        <v>11</v>
+        <v>asdasdas</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>0</v>
+        <v>45687</v>
       </c>
       <c r="B9" t="str">
-        <v>00</v>
+        <v>asdad</v>
       </c>
       <c r="C9" t="str">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="D9" t="str">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="E9" t="str">
-        <v>00</v>
+        <v>2</v>
       </c>
       <c r="F9" t="str">
-        <v>0</v>
+        <v>asdasd</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>56801</v>
+      </c>
+      <c r="B10" t="str">
+        <v>sdsad</v>
+      </c>
+      <c r="C10" t="str">
+        <v>143</v>
+      </c>
+      <c r="D10" t="str">
+        <v>467</v>
+      </c>
+      <c r="E10" t="str">
+        <v>3123</v>
+      </c>
+      <c r="F10" t="str">
+        <v>asda</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>67915</v>
+      </c>
+      <c r="B11" t="str">
+        <v>asdad</v>
+      </c>
+      <c r="C11" t="str">
+        <v>180</v>
+      </c>
+      <c r="D11" t="str">
+        <v>585</v>
+      </c>
+      <c r="E11" t="str">
+        <v>24</v>
+      </c>
+      <c r="F11" t="str">
+        <v>asdasdas</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>79029</v>
+      </c>
+      <c r="B12" t="str">
+        <v>sdsad</v>
+      </c>
+      <c r="C12" t="str">
+        <v>217</v>
+      </c>
+      <c r="D12" t="str">
+        <v>703</v>
+      </c>
+      <c r="E12" t="str">
+        <v>2</v>
+      </c>
+      <c r="F12" t="str">
+        <v>asdasd</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>67915</v>
+      </c>
+      <c r="B13" t="str">
+        <v>asda</v>
+      </c>
+      <c r="C13" t="str">
+        <v>254</v>
+      </c>
+      <c r="D13" t="str">
+        <v>821</v>
+      </c>
+      <c r="E13" t="str">
+        <v>20</v>
+      </c>
+      <c r="F13" t="str">
+        <v>asdasdas</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>101257</v>
+      </c>
+      <c r="B14" t="str">
+        <v>sdsad</v>
+      </c>
+      <c r="C14" t="str">
+        <v>291</v>
+      </c>
+      <c r="D14" t="str">
+        <v>939</v>
+      </c>
+      <c r="E14" t="str">
+        <v>42</v>
+      </c>
+      <c r="F14" t="str">
+        <v>asdasd</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>112371</v>
+      </c>
+      <c r="B15" t="str">
+        <v>asdad</v>
+      </c>
+      <c r="C15" t="str">
+        <v>328</v>
+      </c>
+      <c r="D15" t="str">
+        <v>1057</v>
+      </c>
+      <c r="E15" t="str">
+        <v>64</v>
+      </c>
+      <c r="F15" t="str">
+        <v>asdasdas</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>123485</v>
+      </c>
+      <c r="B16" t="str">
+        <v>sdsad</v>
+      </c>
+      <c r="C16" t="str">
+        <v>365</v>
+      </c>
+      <c r="D16" t="str">
+        <v>1175</v>
+      </c>
+      <c r="E16" t="str">
+        <v>86</v>
+      </c>
+      <c r="F16" t="str">
+        <v>asdasd</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>134599</v>
+      </c>
+      <c r="B17" t="str">
+        <v>asdad</v>
+      </c>
+      <c r="C17" t="str">
+        <v>402</v>
+      </c>
+      <c r="D17" t="str">
+        <v>1293</v>
+      </c>
+      <c r="E17" t="str">
+        <v>108</v>
+      </c>
+      <c r="F17" t="str">
+        <v>asdasdas</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>145713</v>
+      </c>
+      <c r="B18" t="str">
+        <v>sdsad</v>
+      </c>
+      <c r="C18" t="str">
+        <v>439</v>
+      </c>
+      <c r="D18" t="str">
+        <v>1411</v>
+      </c>
+      <c r="E18" t="str">
+        <v>130</v>
+      </c>
+      <c r="F18" t="str">
+        <v>asdasd</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>156827</v>
+      </c>
+      <c r="B19" t="str">
+        <v>asdad</v>
+      </c>
+      <c r="C19" t="str">
+        <v>476</v>
+      </c>
+      <c r="D19" t="str">
+        <v>1529</v>
+      </c>
+      <c r="E19" t="str">
+        <v>152</v>
+      </c>
+      <c r="F19" t="str">
+        <v>asdasdas</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>167941</v>
+      </c>
+      <c r="B20" t="str">
+        <v>sdsad</v>
+      </c>
+      <c r="C20" t="str">
+        <v>513</v>
+      </c>
+      <c r="D20" t="str">
+        <v>1647</v>
+      </c>
+      <c r="E20" t="str">
+        <v>174</v>
+      </c>
+      <c r="F20" t="str">
+        <v>asdasd</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>179055</v>
+      </c>
+      <c r="B21" t="str">
+        <v>asdad</v>
+      </c>
+      <c r="C21" t="str">
+        <v>550</v>
+      </c>
+      <c r="D21" t="str">
+        <v>1765</v>
+      </c>
+      <c r="E21" t="str">
+        <v>196</v>
+      </c>
+      <c r="F21" t="str">
+        <v>asdasdas</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>190169</v>
+      </c>
+      <c r="B22" t="str">
+        <v>sdsad</v>
+      </c>
+      <c r="C22" t="str">
+        <v>587</v>
+      </c>
+      <c r="D22" t="str">
+        <v>1883</v>
+      </c>
+      <c r="E22" t="str">
+        <v>218</v>
+      </c>
+      <c r="F22" t="str">
+        <v>asdasd</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>201283</v>
+      </c>
+      <c r="B23" t="str">
+        <v>asdad</v>
+      </c>
+      <c r="C23" t="str">
+        <v>624</v>
+      </c>
+      <c r="D23" t="str">
+        <v>2001</v>
+      </c>
+      <c r="E23" t="str">
+        <v>240</v>
+      </c>
+      <c r="F23" t="str">
+        <v>asdasdas</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>212397</v>
+      </c>
+      <c r="B24" t="str">
+        <v>sdsad</v>
+      </c>
+      <c r="C24" t="str">
+        <v>661</v>
+      </c>
+      <c r="D24" t="str">
+        <v>2119</v>
+      </c>
+      <c r="E24" t="str">
+        <v>262</v>
+      </c>
+      <c r="F24" t="str">
+        <v>asdasd</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>223511</v>
+      </c>
+      <c r="B25" t="str">
+        <v>asdad</v>
+      </c>
+      <c r="C25" t="str">
+        <v>698</v>
+      </c>
+      <c r="D25" t="str">
+        <v>2237</v>
+      </c>
+      <c r="E25" t="str">
+        <v>284</v>
+      </c>
+      <c r="F25" t="str">
+        <v>asdasdas</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F25"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/api/save/data.xlsx
+++ b/public/api/save/data.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,156 +402,156 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>1234</v>
+        <v>3425</v>
       </c>
       <c r="B2" t="str">
-        <v>ffF</v>
+        <v>aaaasd</v>
       </c>
       <c r="C2" t="str">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="D2" t="str">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E2" t="str">
-        <v>42</v>
+        <v>3123</v>
       </c>
       <c r="F2" t="str">
-        <v>aaaasd</v>
+        <v>asda</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="B3" t="str">
-        <v>fff</v>
+        <v>asdad</v>
       </c>
       <c r="C3" t="str">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" t="str">
-        <v>213</v>
+        <v>123</v>
       </c>
       <c r="E3" t="str">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" t="str">
-        <v>aasda</v>
+        <v>asdasdas</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>3425</v>
+        <v>12345</v>
       </c>
       <c r="B4" t="str">
-        <v>aaaasd</v>
+        <v>sdsad</v>
       </c>
       <c r="C4" t="str">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="D4" t="str">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="E4" t="str">
-        <v>3123</v>
+        <v>2</v>
       </c>
       <c r="F4" t="str">
-        <v>asda</v>
+        <v>asdasd</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>1231</v>
+        <v>23459</v>
       </c>
       <c r="B5" t="str">
         <v>asdad</v>
       </c>
       <c r="C5" t="str">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D5" t="str">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E5" t="str">
-        <v>24</v>
+        <v>3123</v>
       </c>
       <c r="F5" t="str">
-        <v>asdasdas</v>
+        <v>asda</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>12345</v>
+        <v>34573</v>
       </c>
       <c r="B6" t="str">
         <v>sdsad</v>
       </c>
       <c r="C6" t="str">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="D6" t="str">
-        <v>5</v>
+        <v>231</v>
       </c>
       <c r="E6" t="str">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="F6" t="str">
-        <v>asdasd</v>
+        <v>asdasdas</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>23459</v>
+        <v>45687</v>
       </c>
       <c r="B7" t="str">
         <v>asdad</v>
       </c>
       <c r="C7" t="str">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="D7" t="str">
-        <v>113</v>
+        <v>349</v>
       </c>
       <c r="E7" t="str">
-        <v>3123</v>
+        <v>2</v>
       </c>
       <c r="F7" t="str">
-        <v>asda</v>
+        <v>asdasd</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>34573</v>
+        <v>56801</v>
       </c>
       <c r="B8" t="str">
         <v>sdsad</v>
       </c>
       <c r="C8" t="str">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="D8" t="str">
-        <v>231</v>
+        <v>467</v>
       </c>
       <c r="E8" t="str">
-        <v>24</v>
+        <v>3123</v>
       </c>
       <c r="F8" t="str">
-        <v>asdasdas</v>
+        <v>asda</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>45687</v>
+        <v>79029</v>
       </c>
       <c r="B9" t="str">
-        <v>asdad</v>
+        <v>sdsad</v>
       </c>
       <c r="C9" t="str">
-        <v>106</v>
+        <v>217</v>
       </c>
       <c r="D9" t="str">
-        <v>349</v>
+        <v>703</v>
       </c>
       <c r="E9" t="str">
         <v>2</v>
@@ -562,39 +562,39 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>56801</v>
+        <v>123485</v>
       </c>
       <c r="B10" t="str">
         <v>sdsad</v>
       </c>
       <c r="C10" t="str">
-        <v>143</v>
+        <v>365</v>
       </c>
       <c r="D10" t="str">
-        <v>467</v>
+        <v>1175</v>
       </c>
       <c r="E10" t="str">
-        <v>3123</v>
+        <v>86</v>
       </c>
       <c r="F10" t="str">
-        <v>asda</v>
+        <v>asdasd</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>67915</v>
+        <v>134599</v>
       </c>
       <c r="B11" t="str">
         <v>asdad</v>
       </c>
       <c r="C11" t="str">
-        <v>180</v>
+        <v>402</v>
       </c>
       <c r="D11" t="str">
-        <v>585</v>
+        <v>1293</v>
       </c>
       <c r="E11" t="str">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="F11" t="str">
         <v>asdasdas</v>
@@ -602,122 +602,122 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>79029</v>
+        <v>156827</v>
       </c>
       <c r="B12" t="str">
-        <v>sdsad</v>
+        <v>asdad</v>
       </c>
       <c r="C12" t="str">
-        <v>217</v>
+        <v>476</v>
       </c>
       <c r="D12" t="str">
-        <v>703</v>
+        <v>1529</v>
       </c>
       <c r="E12" t="str">
-        <v>2</v>
+        <v>152</v>
       </c>
       <c r="F12" t="str">
-        <v>asdasd</v>
+        <v>asdasdas</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>67915</v>
+        <v>167941</v>
       </c>
       <c r="B13" t="str">
-        <v>asda</v>
+        <v>sdsad</v>
       </c>
       <c r="C13" t="str">
-        <v>254</v>
+        <v>513</v>
       </c>
       <c r="D13" t="str">
-        <v>821</v>
+        <v>1647</v>
       </c>
       <c r="E13" t="str">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="F13" t="str">
-        <v>asdasdas</v>
+        <v>asdasd</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>101257</v>
+        <v>179055</v>
       </c>
       <c r="B14" t="str">
-        <v>sdsad</v>
+        <v>asdad</v>
       </c>
       <c r="C14" t="str">
-        <v>291</v>
+        <v>550</v>
       </c>
       <c r="D14" t="str">
-        <v>939</v>
+        <v>1765</v>
       </c>
       <c r="E14" t="str">
-        <v>42</v>
+        <v>196</v>
       </c>
       <c r="F14" t="str">
-        <v>asdasd</v>
+        <v>asdasdas</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>112371</v>
+        <v>190169</v>
       </c>
       <c r="B15" t="str">
-        <v>asdad</v>
+        <v>sdsad</v>
       </c>
       <c r="C15" t="str">
-        <v>328</v>
+        <v>587</v>
       </c>
       <c r="D15" t="str">
-        <v>1057</v>
+        <v>1883</v>
       </c>
       <c r="E15" t="str">
-        <v>64</v>
+        <v>218</v>
       </c>
       <c r="F15" t="str">
-        <v>asdasdas</v>
+        <v>asdasd</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>123485</v>
+        <v>201283</v>
       </c>
       <c r="B16" t="str">
-        <v>sdsad</v>
+        <v>asdad</v>
       </c>
       <c r="C16" t="str">
-        <v>365</v>
+        <v>624</v>
       </c>
       <c r="D16" t="str">
-        <v>1175</v>
+        <v>2001</v>
       </c>
       <c r="E16" t="str">
-        <v>86</v>
+        <v>240</v>
       </c>
       <c r="F16" t="str">
-        <v>asdasd</v>
+        <v>asdasdas</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>134599</v>
+        <v>212397</v>
       </c>
       <c r="B17" t="str">
-        <v>asdad</v>
+        <v>sdsad</v>
       </c>
       <c r="C17" t="str">
-        <v>402</v>
+        <v>661</v>
       </c>
       <c r="D17" t="str">
-        <v>1293</v>
+        <v>2119</v>
       </c>
       <c r="E17" t="str">
-        <v>108</v>
+        <v>262</v>
       </c>
       <c r="F17" t="str">
-        <v>asdasdas</v>
+        <v>asdasd</v>
       </c>
     </row>
     <row r="18">
@@ -728,161 +728,21 @@
         <v>sdsad</v>
       </c>
       <c r="C18" t="str">
-        <v>439</v>
+        <v>0</v>
       </c>
       <c r="D18" t="str">
         <v>1411</v>
       </c>
       <c r="E18" t="str">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="F18" t="str">
         <v>asdasd</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>156827</v>
-      </c>
-      <c r="B19" t="str">
-        <v>asdad</v>
-      </c>
-      <c r="C19" t="str">
-        <v>476</v>
-      </c>
-      <c r="D19" t="str">
-        <v>1529</v>
-      </c>
-      <c r="E19" t="str">
-        <v>152</v>
-      </c>
-      <c r="F19" t="str">
-        <v>asdasdas</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>167941</v>
-      </c>
-      <c r="B20" t="str">
-        <v>sdsad</v>
-      </c>
-      <c r="C20" t="str">
-        <v>513</v>
-      </c>
-      <c r="D20" t="str">
-        <v>1647</v>
-      </c>
-      <c r="E20" t="str">
-        <v>174</v>
-      </c>
-      <c r="F20" t="str">
-        <v>asdasd</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>179055</v>
-      </c>
-      <c r="B21" t="str">
-        <v>asdad</v>
-      </c>
-      <c r="C21" t="str">
-        <v>550</v>
-      </c>
-      <c r="D21" t="str">
-        <v>1765</v>
-      </c>
-      <c r="E21" t="str">
-        <v>196</v>
-      </c>
-      <c r="F21" t="str">
-        <v>asdasdas</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>190169</v>
-      </c>
-      <c r="B22" t="str">
-        <v>sdsad</v>
-      </c>
-      <c r="C22" t="str">
-        <v>587</v>
-      </c>
-      <c r="D22" t="str">
-        <v>1883</v>
-      </c>
-      <c r="E22" t="str">
-        <v>218</v>
-      </c>
-      <c r="F22" t="str">
-        <v>asdasd</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>201283</v>
-      </c>
-      <c r="B23" t="str">
-        <v>asdad</v>
-      </c>
-      <c r="C23" t="str">
-        <v>624</v>
-      </c>
-      <c r="D23" t="str">
-        <v>2001</v>
-      </c>
-      <c r="E23" t="str">
-        <v>240</v>
-      </c>
-      <c r="F23" t="str">
-        <v>asdasdas</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>212397</v>
-      </c>
-      <c r="B24" t="str">
-        <v>sdsad</v>
-      </c>
-      <c r="C24" t="str">
-        <v>661</v>
-      </c>
-      <c r="D24" t="str">
-        <v>2119</v>
-      </c>
-      <c r="E24" t="str">
-        <v>262</v>
-      </c>
-      <c r="F24" t="str">
-        <v>asdasd</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>223511</v>
-      </c>
-      <c r="B25" t="str">
-        <v>asdad</v>
-      </c>
-      <c r="C25" t="str">
-        <v>698</v>
-      </c>
-      <c r="D25" t="str">
-        <v>2237</v>
-      </c>
-      <c r="E25" t="str">
-        <v>284</v>
-      </c>
-      <c r="F25" t="str">
-        <v>asdasdas</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F25"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F18"/>
   </ignoredErrors>
 </worksheet>
 </file>